--- a/Tests/Vineet Copy Project Test Cases.xlsx
+++ b/Tests/Vineet Copy Project Test Cases.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="60">
   <si>
     <t>Functionality</t>
   </si>
@@ -158,9 +158,6 @@
 5) It will show details of products on the side of Cart icon.</t>
   </si>
   <si>
-    <t>Failed</t>
-  </si>
-  <si>
     <t>1) Verify Categories link on home page located below menubar
 2) Click any category option listed under Categories link.</t>
   </si>
@@ -173,12 +170,6 @@
   </si>
   <si>
     <t>1) It will direct the user to the Product Search page to select that particular brand.</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Some Brands like philips is not listed under Brands in product search page.</t>
   </si>
   <si>
     <t>Home Page</t>
@@ -246,9 +237,6 @@
 2) Layout is correct, No components are missing. Page includes contact information, Address information, short outline of the company, Payment account details.</t>
   </si>
   <si>
-    <t>Its future plan</t>
-  </si>
-  <si>
     <t>1) Sign in as the administrator;</t>
   </si>
   <si>
@@ -260,13 +248,17 @@
 2) It will shows that "You are going to import 0 products"</t>
   </si>
   <si>
-    <t>It is for future planning</t>
-  </si>
-  <si>
-    <t>Pass/Fail</t>
-  </si>
-  <si>
-    <t>Add to Cart option is not implemented in this version.</t>
+    <t>Not Applicable</t>
+  </si>
+  <si>
+    <t>It is integrated in our current design but not implemented. It can be implemented in future Version.</t>
+  </si>
+  <si>
+    <t>"Add to Cart" is integrated in our current design but not implemented. It can be implemented in future Version.</t>
+  </si>
+  <si>
+    <t>Pass and
+"Add to Cart" Not Applicable</t>
   </si>
 </sst>
 </file>
@@ -853,6 +845,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -865,47 +896,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1247,8 +1239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E23" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F15" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1259,41 +1251,41 @@
     <col min="5" max="5" width="27.140625" customWidth="1"/>
     <col min="6" max="6" width="59.28515625" customWidth="1"/>
     <col min="7" max="7" width="55.5703125" customWidth="1"/>
-    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
     <col min="9" max="9" width="42.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="50"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="45"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="53"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="48"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="56"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="51"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
@@ -1322,10 +1314,10 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="46"/>
+      <c r="C7" s="41"/>
       <c r="D7" s="2">
         <v>1</v>
       </c>
@@ -1344,8 +1336,8 @@
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" ht="129" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="43"/>
-      <c r="C8" s="47"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="42"/>
       <c r="D8" s="5">
         <v>2</v>
       </c>
@@ -1364,8 +1356,8 @@
       <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="43"/>
-      <c r="C9" s="47"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="42"/>
       <c r="D9" s="5">
         <v>3</v>
       </c>
@@ -1384,8 +1376,8 @@
       <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="43"/>
-      <c r="C10" s="47"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="42"/>
       <c r="D10" s="5">
         <v>4</v>
       </c>
@@ -1404,8 +1396,8 @@
       <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="43"/>
-      <c r="C11" s="47"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="42"/>
       <c r="D11" s="5">
         <v>5</v>
       </c>
@@ -1419,15 +1411,15 @@
         <v>18</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="43"/>
-      <c r="C12" s="47"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="42"/>
       <c r="D12" s="30">
         <v>6</v>
       </c>
@@ -1452,13 +1444,13 @@
         <v>7</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>27</v>
@@ -1466,11 +1458,11 @@
       <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
-      <c r="B14" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="40"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="53"/>
       <c r="D14" s="34">
         <v>8</v>
       </c>
@@ -1487,9 +1479,9 @@
       <c r="I14" s="37"/>
     </row>
     <row r="15" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="40"/>
+      <c r="A15" s="53"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="53"/>
       <c r="D15" s="5">
         <v>9</v>
       </c>
@@ -1506,9 +1498,9 @@
       <c r="I15" s="7"/>
     </row>
     <row r="16" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="40"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="40"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="53"/>
       <c r="D16" s="5">
         <v>10</v>
       </c>
@@ -1525,9 +1517,9 @@
       <c r="I16" s="7"/>
     </row>
     <row r="17" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A17" s="40"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="40"/>
+      <c r="A17" s="53"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="53"/>
       <c r="D17" s="5">
         <v>11</v>
       </c>
@@ -1539,67 +1531,67 @@
         <v>33</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="40"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="53"/>
       <c r="D18" s="5">
         <v>12</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="12" t="s">
         <v>35</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>27</v>
       </c>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="41"/>
+    <row r="19" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="54"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="54"/>
       <c r="D19" s="8">
         <v>13</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="G19" s="13" t="s">
-        <v>38</v>
-      </c>
       <c r="H19" s="9" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
-      <c r="B20" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="39"/>
+      <c r="B20" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="52"/>
       <c r="D20" s="2">
         <v>14</v>
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>27</v>
@@ -1608,17 +1600,17 @@
     </row>
     <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="40"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="53"/>
       <c r="D21" s="5">
         <v>15</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>27</v>
@@ -1627,17 +1619,17 @@
     </row>
     <row r="22" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="40"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="53"/>
       <c r="D22" s="5">
         <v>16</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H22" s="6" t="s">
         <v>27</v>
@@ -1646,17 +1638,17 @@
     </row>
     <row r="23" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A23" s="20"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="40"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="53"/>
       <c r="D23" s="5">
         <v>17</v>
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H23" s="6" t="s">
         <v>27</v>
@@ -1665,29 +1657,29 @@
     </row>
     <row r="24" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="21"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="41"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="54"/>
       <c r="D24" s="8">
         <v>18</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="29"/>
       <c r="B25" s="22" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C25" s="23"/>
       <c r="D25" s="24">
@@ -1695,10 +1687,10 @@
       </c>
       <c r="E25" s="25"/>
       <c r="F25" s="26" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G25" s="26" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H25" s="27" t="s">
         <v>27</v>
@@ -1707,14 +1699,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="C20:C24"/>
     <mergeCell ref="B7:B12"/>
     <mergeCell ref="C7:C12"/>
     <mergeCell ref="B3:I5"/>
     <mergeCell ref="A14:A19"/>
     <mergeCell ref="B14:B19"/>
     <mergeCell ref="C14:C19"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="C20:C24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
